--- a/inputs/data_raw/Data_SJFC_Demographics_20200630.xlsx
+++ b/inputs/data_raw/Data_SJFC_Demographics_20200630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE525F82-9849-46B0-A0F1-50E123A267F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C75FF1-5E7B-4BB2-8F5F-45A21F162E49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="other" sheetId="37" r:id="rId1"/>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812416DD-F418-48F2-BDB4-52F7049A5468}">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1766,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF5E2A8-8066-4C09-9596-AB1EEC0396D2}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2893,7 +2893,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4593,7 +4593,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="63">
+    <row r="11" spans="1:5" ht="31.5">
       <c r="C11" s="50" t="s">
         <v>83</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="47.25">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="C12" s="53" t="s">
         <v>86</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>8242996</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="31.5">
+    <row r="21" spans="3:5" ht="15.75">
       <c r="C21" s="53" t="s">
         <v>96</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>6257927</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="63">
+    <row r="22" spans="3:5" ht="15.75">
       <c r="C22" s="50" t="s">
         <v>97</v>
       </c>

--- a/inputs/data_raw/Data_SJFC_Demographics_20200630.xlsx
+++ b/inputs/data_raw/Data_SJFC_Demographics_20200630.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C75FF1-5E7B-4BB2-8F5F-45A21F162E49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2A18F7-551F-4D1A-9213-9E4DCDA56D71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1767,7 +1767,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:P19"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1778,6 +1778,7 @@
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2893,7 +2894,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G7" sqref="G7:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inputs/data_raw/Data_SJFC_Demographics_20200630.xlsx
+++ b/inputs/data_raw/Data_SJFC_Demographics_20200630.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2A18F7-551F-4D1A-9213-9E4DCDA56D71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52609C69-D3A4-4A90-9074-2D2A668F86FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,15 +1254,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>410643</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>10396</xdr:rowOff>
+      <xdr:colOff>372543</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>143746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1285,7 +1285,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10982325" y="628650"/>
+          <a:off x="11001375" y="0"/>
           <a:ext cx="7649643" cy="6239746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1764,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF5E2A8-8066-4C09-9596-AB1EEC0396D2}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1778,6 +1778,7 @@
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2878,6 +2879,12 @@
       </c>
       <c r="P30" s="62">
         <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="25:25">
+      <c r="Y35">
+        <f>3742*91274</f>
+        <v>341547308</v>
       </c>
     </row>
   </sheetData>
